--- a/results/tables/TableO2B.xlsx
+++ b/results/tables/TableO2B.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t xml:space="preserve">Atlas</t>
   </si>
@@ -137,16 +137,13 @@
     <t xml:space="preserve">Bilateral</t>
   </si>
   <si>
-    <t xml:space="preserve">Medial Frontal Cortex</t>
+    <t xml:space="preserve">Ventromedial Frontal Cortex</t>
   </si>
   <si>
     <t xml:space="preserve">Medial Anterior Sfg</t>
   </si>
   <si>
     <t xml:space="preserve">Medial Sfg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crus Ii / Viib</t>
   </si>
   <si>
     <t xml:space="preserve">Crus I / Ii / Viib</t>
@@ -158,7 +155,7 @@
     <t xml:space="preserve">Posterior Vi / Crus I</t>
   </si>
   <si>
-    <t xml:space="preserve">Lateral Vi / Crus I</t>
+    <t xml:space="preserve">Lateral Vi</t>
   </si>
 </sst>
 </file>
@@ -8121,7 +8118,7 @@
       </c>
       <c r="C255"/>
       <c r="D255" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E255" t="s">
         <v>13</v>
@@ -8151,7 +8148,7 @@
       </c>
       <c r="C256"/>
       <c r="D256" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E256" t="s">
         <v>13</v>
@@ -8181,7 +8178,7 @@
       </c>
       <c r="C257"/>
       <c r="D257" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E257" t="s">
         <v>13</v>
@@ -8211,7 +8208,7 @@
       </c>
       <c r="C258"/>
       <c r="D258" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E258" t="s">
         <v>13</v>
@@ -8241,7 +8238,7 @@
       </c>
       <c r="C259"/>
       <c r="D259" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E259" t="s">
         <v>18</v>
@@ -8271,7 +8268,7 @@
       </c>
       <c r="C260"/>
       <c r="D260" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E260" t="s">
         <v>18</v>
@@ -8301,7 +8298,7 @@
       </c>
       <c r="C261"/>
       <c r="D261" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E261" t="s">
         <v>18</v>
@@ -8331,7 +8328,7 @@
       </c>
       <c r="C262"/>
       <c r="D262" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E262" t="s">
         <v>18</v>
@@ -8361,7 +8358,7 @@
       </c>
       <c r="C263"/>
       <c r="D263" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E263" t="s">
         <v>23</v>
@@ -8391,7 +8388,7 @@
       </c>
       <c r="C264"/>
       <c r="D264" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E264" t="s">
         <v>23</v>
@@ -8421,7 +8418,7 @@
       </c>
       <c r="C265"/>
       <c r="D265" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E265" t="s">
         <v>23</v>
@@ -8451,7 +8448,7 @@
       </c>
       <c r="C266"/>
       <c r="D266" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E266" t="s">
         <v>13</v>
@@ -8481,7 +8478,7 @@
       </c>
       <c r="C267"/>
       <c r="D267" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E267" t="s">
         <v>13</v>
@@ -8511,7 +8508,7 @@
       </c>
       <c r="C268"/>
       <c r="D268" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E268" t="s">
         <v>13</v>
@@ -8541,7 +8538,7 @@
       </c>
       <c r="C269"/>
       <c r="D269" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E269" t="s">
         <v>13</v>
@@ -8571,7 +8568,7 @@
       </c>
       <c r="C270"/>
       <c r="D270" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E270" t="s">
         <v>18</v>
@@ -8601,7 +8598,7 @@
       </c>
       <c r="C271"/>
       <c r="D271" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E271" t="s">
         <v>18</v>
@@ -8631,7 +8628,7 @@
       </c>
       <c r="C272"/>
       <c r="D272" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E272" t="s">
         <v>18</v>
@@ -8661,7 +8658,7 @@
       </c>
       <c r="C273"/>
       <c r="D273" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E273" t="s">
         <v>18</v>
@@ -8691,7 +8688,7 @@
       </c>
       <c r="C274"/>
       <c r="D274" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E274" t="s">
         <v>23</v>
@@ -8721,7 +8718,7 @@
       </c>
       <c r="C275"/>
       <c r="D275" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E275" t="s">
         <v>23</v>
@@ -8751,7 +8748,7 @@
       </c>
       <c r="C276"/>
       <c r="D276" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E276" t="s">
         <v>23</v>
@@ -8781,7 +8778,7 @@
       </c>
       <c r="C277"/>
       <c r="D277" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E277" t="s">
         <v>13</v>
@@ -8811,7 +8808,7 @@
       </c>
       <c r="C278"/>
       <c r="D278" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E278" t="s">
         <v>13</v>
@@ -8841,7 +8838,7 @@
       </c>
       <c r="C279"/>
       <c r="D279" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E279" t="s">
         <v>13</v>
@@ -8871,7 +8868,7 @@
       </c>
       <c r="C280"/>
       <c r="D280" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E280" t="s">
         <v>13</v>
@@ -8901,7 +8898,7 @@
       </c>
       <c r="C281"/>
       <c r="D281" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E281" t="s">
         <v>18</v>
@@ -8931,7 +8928,7 @@
       </c>
       <c r="C282"/>
       <c r="D282" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E282" t="s">
         <v>18</v>
@@ -8961,7 +8958,7 @@
       </c>
       <c r="C283"/>
       <c r="D283" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E283" t="s">
         <v>18</v>
@@ -8991,7 +8988,7 @@
       </c>
       <c r="C284"/>
       <c r="D284" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E284" t="s">
         <v>18</v>
@@ -9021,7 +9018,7 @@
       </c>
       <c r="C285"/>
       <c r="D285" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E285" t="s">
         <v>23</v>
@@ -9051,7 +9048,7 @@
       </c>
       <c r="C286"/>
       <c r="D286" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E286" t="s">
         <v>23</v>
@@ -9081,7 +9078,7 @@
       </c>
       <c r="C287"/>
       <c r="D287" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E287" t="s">
         <v>23</v>
@@ -9111,7 +9108,7 @@
       </c>
       <c r="C288"/>
       <c r="D288" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E288" t="s">
         <v>13</v>
@@ -9141,7 +9138,7 @@
       </c>
       <c r="C289"/>
       <c r="D289" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E289" t="s">
         <v>13</v>
@@ -9171,7 +9168,7 @@
       </c>
       <c r="C290"/>
       <c r="D290" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E290" t="s">
         <v>13</v>
@@ -9201,7 +9198,7 @@
       </c>
       <c r="C291"/>
       <c r="D291" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E291" t="s">
         <v>13</v>
@@ -9231,7 +9228,7 @@
       </c>
       <c r="C292"/>
       <c r="D292" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E292" t="s">
         <v>18</v>
@@ -9261,7 +9258,7 @@
       </c>
       <c r="C293"/>
       <c r="D293" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E293" t="s">
         <v>18</v>
@@ -9291,7 +9288,7 @@
       </c>
       <c r="C294"/>
       <c r="D294" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E294" t="s">
         <v>18</v>
@@ -9321,7 +9318,7 @@
       </c>
       <c r="C295"/>
       <c r="D295" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E295" t="s">
         <v>18</v>
@@ -9351,7 +9348,7 @@
       </c>
       <c r="C296"/>
       <c r="D296" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E296" t="s">
         <v>23</v>
@@ -9381,7 +9378,7 @@
       </c>
       <c r="C297"/>
       <c r="D297" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E297" t="s">
         <v>23</v>
@@ -9411,7 +9408,7 @@
       </c>
       <c r="C298"/>
       <c r="D298" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E298" t="s">
         <v>23</v>
